--- a/data/evaluation/evaluation_Center_Autumn_Kohlrabi.xlsx
+++ b/data/evaluation/evaluation_Center_Autumn_Kohlrabi.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2701.183333333333</v>
+        <v>2571.183333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>15436363.3375</v>
+        <v>14727863.3375</v>
       </c>
       <c r="D3" t="n">
-        <v>3928.91376050684</v>
+        <v>3837.689843838348</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.6532175803585702</v>
+        <v>-0.5773380075553982</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2504.622122692706</v>
+        <v>2604.829766290203</v>
       </c>
       <c r="C4" t="n">
-        <v>10885893.61175528</v>
+        <v>11013454.73926872</v>
       </c>
       <c r="D4" t="n">
-        <v>3299.377761299134</v>
+        <v>3318.65254874154</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1658672644188717</v>
+        <v>-0.1795289212459859</v>
       </c>
     </row>
     <row r="5">
